--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>15.2300583548975</v>
+        <v>0.6462393333333333</v>
       </c>
       <c r="H2">
-        <v>15.2300583548975</v>
+        <v>1.938718</v>
       </c>
       <c r="I2">
-        <v>0.8510382175794575</v>
+        <v>0.03461850536298827</v>
       </c>
       <c r="J2">
-        <v>0.8510382175794575</v>
+        <v>0.03461850536298827</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>105.863074054653</v>
+        <v>1.321445333333333</v>
       </c>
       <c r="N2">
-        <v>105.863074054653</v>
+        <v>3.964336</v>
       </c>
       <c r="O2">
-        <v>0.8356715064317114</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="P2">
-        <v>0.8356715064317114</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="Q2">
-        <v>1612.300795481201</v>
+        <v>0.8539699512497777</v>
       </c>
       <c r="R2">
-        <v>1612.300795481201</v>
+        <v>7.685729561248</v>
       </c>
       <c r="S2">
-        <v>0.7111883893155838</v>
+        <v>0.0003537256781624438</v>
       </c>
       <c r="T2">
-        <v>0.7111883893155838</v>
+        <v>0.0003537256781624438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>15.2300583548975</v>
+        <v>0.6462393333333333</v>
       </c>
       <c r="H3">
-        <v>15.2300583548975</v>
+        <v>1.938718</v>
       </c>
       <c r="I3">
-        <v>0.8510382175794575</v>
+        <v>0.03461850536298827</v>
       </c>
       <c r="J3">
-        <v>0.8510382175794575</v>
+        <v>0.03461850536298827</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.8171743921137</v>
+        <v>105.9632263333333</v>
       </c>
       <c r="N3">
-        <v>20.8171743921137</v>
+        <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.1643284935682886</v>
+        <v>0.819340166699254</v>
       </c>
       <c r="P3">
-        <v>0.1643284935682886</v>
+        <v>0.8193401666992541</v>
       </c>
       <c r="Q3">
-        <v>317.0467807759695</v>
+        <v>68.47760474350244</v>
       </c>
       <c r="R3">
-        <v>317.0467807759695</v>
+        <v>616.2984426915219</v>
       </c>
       <c r="S3">
-        <v>0.1398498282638737</v>
+        <v>0.02836433195498983</v>
       </c>
       <c r="T3">
-        <v>0.1398498282638737</v>
+        <v>0.02836433195498983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.6657987761902</v>
+        <v>0.6462393333333333</v>
       </c>
       <c r="H4">
-        <v>2.6657987761902</v>
+        <v>1.938718</v>
       </c>
       <c r="I4">
-        <v>0.1489617824205425</v>
+        <v>0.03461850536298827</v>
       </c>
       <c r="J4">
-        <v>0.1489617824205425</v>
+        <v>0.03461850536298827</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>105.863074054653</v>
+        <v>22.04284166666666</v>
       </c>
       <c r="N4">
-        <v>105.863074054653</v>
+        <v>66.128525</v>
       </c>
       <c r="O4">
-        <v>0.8356715064317114</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="P4">
-        <v>0.8356715064317114</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="Q4">
-        <v>282.2096532586265</v>
+        <v>14.24495130343889</v>
       </c>
       <c r="R4">
-        <v>282.2096532586265</v>
+        <v>128.20456173095</v>
       </c>
       <c r="S4">
-        <v>0.1244831171161276</v>
+        <v>0.005900447729835997</v>
       </c>
       <c r="T4">
-        <v>0.1244831171161276</v>
+        <v>0.005900447729835996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>15.322826</v>
+      </c>
+      <c r="H5">
+        <v>45.968478</v>
+      </c>
+      <c r="I5">
+        <v>0.8208310864042159</v>
+      </c>
+      <c r="J5">
+        <v>0.8208310864042158</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.321445333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.964336</v>
+      </c>
+      <c r="O5">
+        <v>0.01021782062667047</v>
+      </c>
+      <c r="P5">
+        <v>0.01021782062667047</v>
+      </c>
+      <c r="Q5">
+        <v>20.24827691117867</v>
+      </c>
+      <c r="R5">
+        <v>182.234492200608</v>
+      </c>
+      <c r="S5">
+        <v>0.008387104805673326</v>
+      </c>
+      <c r="T5">
+        <v>0.008387104805673326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>15.322826</v>
+      </c>
+      <c r="H6">
+        <v>45.968478</v>
+      </c>
+      <c r="I6">
+        <v>0.8208310864042159</v>
+      </c>
+      <c r="J6">
+        <v>0.8208310864042158</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>105.9632263333333</v>
+      </c>
+      <c r="N6">
+        <v>317.889679</v>
+      </c>
+      <c r="O6">
+        <v>0.819340166699254</v>
+      </c>
+      <c r="P6">
+        <v>0.8193401666992541</v>
+      </c>
+      <c r="Q6">
+        <v>1623.656079504285</v>
+      </c>
+      <c r="R6">
+        <v>14612.90471553856</v>
+      </c>
+      <c r="S6">
+        <v>0.67253987916636</v>
+      </c>
+      <c r="T6">
+        <v>0.67253987916636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.322826</v>
+      </c>
+      <c r="H7">
+        <v>45.968478</v>
+      </c>
+      <c r="I7">
+        <v>0.8208310864042159</v>
+      </c>
+      <c r="J7">
+        <v>0.8208310864042158</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.04284166666666</v>
+      </c>
+      <c r="N7">
+        <v>66.128525</v>
+      </c>
+      <c r="O7">
+        <v>0.1704420126740755</v>
+      </c>
+      <c r="P7">
+        <v>0.1704420126740755</v>
+      </c>
+      <c r="Q7">
+        <v>337.7586274038833</v>
+      </c>
+      <c r="R7">
+        <v>3039.82764663495</v>
+      </c>
+      <c r="S7">
+        <v>0.1399041024321825</v>
+      </c>
+      <c r="T7">
+        <v>0.1399041024321825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.698388</v>
+      </c>
+      <c r="H8">
+        <v>8.095164</v>
+      </c>
+      <c r="I8">
+        <v>0.1445504082327959</v>
+      </c>
+      <c r="J8">
+        <v>0.1445504082327959</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.321445333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.964336</v>
+      </c>
+      <c r="O8">
+        <v>0.01021782062667047</v>
+      </c>
+      <c r="P8">
+        <v>0.01021782062667047</v>
+      </c>
+      <c r="Q8">
+        <v>3.565772230122667</v>
+      </c>
+      <c r="R8">
+        <v>32.091950071104</v>
+      </c>
+      <c r="S8">
+        <v>0.001476990142834698</v>
+      </c>
+      <c r="T8">
+        <v>0.001476990142834699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.6657987761902</v>
-      </c>
-      <c r="H5">
-        <v>2.6657987761902</v>
-      </c>
-      <c r="I5">
-        <v>0.1489617824205425</v>
-      </c>
-      <c r="J5">
-        <v>0.1489617824205425</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>20.8171743921137</v>
-      </c>
-      <c r="N5">
-        <v>20.8171743921137</v>
-      </c>
-      <c r="O5">
-        <v>0.1643284935682886</v>
-      </c>
-      <c r="P5">
-        <v>0.1643284935682886</v>
-      </c>
-      <c r="Q5">
-        <v>55.49439801823467</v>
-      </c>
-      <c r="R5">
-        <v>55.49439801823467</v>
-      </c>
-      <c r="S5">
-        <v>0.02447866530441492</v>
-      </c>
-      <c r="T5">
-        <v>0.02447866530441492</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.698388</v>
+      </c>
+      <c r="H9">
+        <v>8.095164</v>
+      </c>
+      <c r="I9">
+        <v>0.1445504082327959</v>
+      </c>
+      <c r="J9">
+        <v>0.1445504082327959</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>105.9632263333333</v>
+      </c>
+      <c r="N9">
+        <v>317.889679</v>
+      </c>
+      <c r="O9">
+        <v>0.819340166699254</v>
+      </c>
+      <c r="P9">
+        <v>0.8193401666992541</v>
+      </c>
+      <c r="Q9">
+        <v>285.9298983791507</v>
+      </c>
+      <c r="R9">
+        <v>2573.369085412356</v>
+      </c>
+      <c r="S9">
+        <v>0.1184359555779042</v>
+      </c>
+      <c r="T9">
+        <v>0.1184359555779042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.698388</v>
+      </c>
+      <c r="H10">
+        <v>8.095164</v>
+      </c>
+      <c r="I10">
+        <v>0.1445504082327959</v>
+      </c>
+      <c r="J10">
+        <v>0.1445504082327959</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.04284166666666</v>
+      </c>
+      <c r="N10">
+        <v>66.128525</v>
+      </c>
+      <c r="O10">
+        <v>0.1704420126740755</v>
+      </c>
+      <c r="P10">
+        <v>0.1704420126740755</v>
+      </c>
+      <c r="Q10">
+        <v>59.48013943923333</v>
+      </c>
+      <c r="R10">
+        <v>535.3212549531</v>
+      </c>
+      <c r="S10">
+        <v>0.02463746251205698</v>
+      </c>
+      <c r="T10">
+        <v>0.02463746251205698</v>
       </c>
     </row>
   </sheetData>
